--- a/docs/PT2/PT2_08.11.2024_output.xlsx
+++ b/docs/PT2/PT2_08.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731606126.7992811</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731606127.6234982</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606126.7992811.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606127.6234982.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>7134.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>7123</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>11.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731606129.956282</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731606130.8555064</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606129.956282.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606130.8555064.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>7094</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>7076</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>18</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731606131.3651373</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731606133.3112597</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606131.3651373.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606133.3112597.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>7084</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>7102.5</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-18.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731606136.4303532</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731606137.114586</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606136.4303532.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606137.114586.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>7098</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>7092</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>6</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731606147.930238</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731606148.49528</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606147.930238.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731606148.49528.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>7084.5</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>7066</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>18.5</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -799,43 +845,49 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731606149.0480232</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731606149.0480232.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731606149.0480232.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7075.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7075.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731606173.3944619</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731606174.080819</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606173.3944619.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606174.080819.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>475</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>475.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731606175.698706</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731606178.453461</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606175.698706.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731606178.453461.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>476.3</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>474.5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-1.800000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.38</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731606186.3473587</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731606187.731341</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606186.3473587.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606187.731341.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>929.4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>926.8</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731606188.7961197</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731606191.0704901</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606188.7961197.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606191.0704901.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>926.6</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>931</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-4.399999999999977</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731606197.462391</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731606199.960487</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606197.462391.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606199.960487.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>934</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>932.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731606201.7825465</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731606202.6861115</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606201.7825465.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606202.6861115.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>933.6</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>934</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731606203.7455072</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731606205.5340364</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606203.7455072.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731606205.5340364.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>933</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>931.4</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.600000000000023</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1207,95 +1301,107 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731606205.5479991</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731606205.5479991.png</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731606205.5479991.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>931.4</v>
       </c>
-      <c r="J16" t="n">
-        <v>931.4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>930.8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6000000000000227</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731606208.1642513</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731606209.6905313</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606208.1642513.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606209.6905313.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>129.7</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>130.26</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.5600000000000023</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731606215.0844946</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731606215.15034</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606215.0844946.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606215.15034.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>129.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>129.52</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.02000000000001023</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731606225.0737014</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731606227.4325774</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606225.0737014.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606227.4325774.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.18</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.88</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.3000000000000114</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731606229.5589724</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731606231.0981183</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606229.5589724.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606231.0981183.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>130.18</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>130.4</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731606231.599355</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731606232.1091714</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606231.599355.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731606232.1091714.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>130.3</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>130.38</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731606240.9749935</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731606242.7381527</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606240.9749935.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606242.7381527.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>37.725</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>37.825</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731606245.1645234</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731606245.387246</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606245.1645234.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606245.387246.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>37.78</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>37.765</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731606245.5194275</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731606245.6234329</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606245.5194275.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606245.6234329.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.795</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.775</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731606253.0901244</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731606253.1948786</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606253.0901244.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606253.1948786.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>37.955</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>38.005</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.05000000000000426</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731606253.3389504</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731606254.691935</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606253.3389504.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606254.691935.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>37.975</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>38</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731606255.6963794</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731606256.4314618</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606255.6963794.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606256.4314618.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>38.02</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>38.035</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.01499999999999346</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731606256.8493469</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731606256.9530227</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606256.8493469.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606256.9530227.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>38.05</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>38.07</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.02000000000000313</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1875,51 +2047,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731606258.3240201</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731606261.213711</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606258.3240201.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731606261.213711.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>38.075</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>38.01</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.06500000000000483</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1927,51 +2105,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731606266.7680564</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731606267.55658</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606266.7680564.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606267.55658.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1184</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1190</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>6</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -1979,51 +2163,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731606268.699968</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731606269.8557234</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606268.699968.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606269.8557234.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1184.8</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1183</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2031,51 +2221,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731606281.1950839</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731606283.9671552</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606281.1950839.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606283.9671552.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1188.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1190.8</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2083,51 +2279,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731606285.265072</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731606286.3415596</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606285.265072.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731606286.3415596.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1190.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1190.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.1999999999998181</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2135,51 +2337,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731606291.3112323</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731606291.7439919</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606291.3112323.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606291.7439919.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>78.73</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>78.65000000000001</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2187,51 +2395,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731606298.4799662</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731606301.406956</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606298.4799662.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606301.406956.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>78.15000000000001</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>78.29000000000001</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2239,51 +2453,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731606305.1769485</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731606305.273786</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606305.1769485.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606305.273786.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>78.34</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>78.37</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2291,51 +2511,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731606307.733375</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731606309.8268018</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606307.733375.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606309.8268018.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>78.48</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>78.61</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2343,51 +2569,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731606313.4417832</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731606313.9790049</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606313.4417832.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606313.9790049.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>78.73</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>78.78</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2395,51 +2627,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731606315.5370238</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731606316.131946</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606315.5370238.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731606316.131946.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>78.67</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>78.68000000000001</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -2447,51 +2685,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731606319.7730052</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731606320.3633592</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606319.7730052.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606320.3633592.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>103.37</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>103.31</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2499,51 +2743,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731606322.6587968</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731606322.7156029</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606322.6587968.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606322.7156029.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>103.16</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>103.07</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.09000000000000341</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2551,51 +2801,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731606322.9992507</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731606323.6933386</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606322.9992507.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606323.6933386.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>103.12</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>102.86</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.2600000000000051</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2603,51 +2859,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731606323.8299172</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731606324.2073832</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606323.8299172.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606324.2073832.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>103.05</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>102.4</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.6499999999999915</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -2655,51 +2917,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731606325.8084912</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731606328.1457908</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606325.8084912.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606328.1457908.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>102.19</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>102.11</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2707,51 +2975,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731606328.5863829</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731606329.1405582</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606328.5863829.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606329.1405582.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>102.47</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>102.42</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2759,51 +3033,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731606336.034121</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731606337.0685368</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606336.034121.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606337.0685368.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>102.98</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>103.05</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.06999999999999318</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2811,51 +3091,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731606340.7212355</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731606341.874639</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606340.7212355.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606341.874639.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>103.07</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>103.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1300000000000097</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2863,51 +3149,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731606342.8515143</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731606343.5094414</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606342.8515143.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731606343.5094414.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>103.21</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>103.27</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2915,51 +3207,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731606351.0902584</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731606351.7653139</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606351.0902584.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606351.7653139.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>2755.9</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>2750.55</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>5.349999999999909</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2967,51 +3265,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731606353.792299</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731606355.502061</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606353.792299.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606355.502061.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>2738.3</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>2736.5</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3019,51 +3323,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731606356.2417183</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731606358.0081387</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606356.2417183.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606358.0081387.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>2741.85</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>2745.15</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-3.300000000000182</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3071,51 +3381,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731606363.180785</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731606366.8204498</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606363.180785.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606366.8204498.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2748.6</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2749.3</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.7000000000002728</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3123,51 +3439,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731606367.9930732</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731606369.4646673</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606367.9930732.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731606369.4646673.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2751.3</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2753.75</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2.449999999999818</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3175,95 +3497,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731606373.1454017</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731606373.1454017.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731606373.1454017.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2745.15</v>
       </c>
-      <c r="J54" t="n">
-        <v>2745.15</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2744.45</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.7000000000002728</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731606382.96735</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731606383.1045752</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606382.96735.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606383.1045752.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>10.856</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>10.866</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3271,51 +3605,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731606384.35845</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731606384.414329</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606384.35845.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606384.414329.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>10.85</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>10.864</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3323,51 +3663,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731606390.9214587</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731606391.0021324</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606390.9214587.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606391.0021324.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>10.844</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>10.836</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.007999999999999119</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3375,51 +3721,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731606391.1356556</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731606391.6709938</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606391.1356556.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606391.6709938.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>10.844</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>10.836</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.007999999999999119</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3427,51 +3779,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>APTK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731606391.798055</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731606393.8794246</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606391.798055.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/APTK1731606393.8794246.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>10.84</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>10.854</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-0.01399999999999935</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3479,51 +3837,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731606397.8393693</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731606399.235252</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606397.8393693.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606399.235252.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>480.3</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>480.4</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.09999999999996589</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3531,51 +3895,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731606399.898937</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731606400.9892633</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606399.898937.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606400.9892633.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>479.6</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>481</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-1.399999999999977</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -3583,51 +3953,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731606415.8836284</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731606418.9448464</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606415.8836284.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606418.9448464.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>486.3</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>485.9</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>-0.4000000000000341</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3635,51 +4011,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731606422.3184853</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731606423.0133905</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606422.3184853.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606423.0133905.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>484.1</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>484.9</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3687,51 +4069,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>PIKK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731606423.7682803</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731606424.1468918</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606423.7682803.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/PIKK1731606424.1468918.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>484.7</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>484.2</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.5</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3739,51 +4127,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731606437.686934</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731606437.7893767</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606437.686934.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606437.7893767.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>577.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>578.4</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3791,51 +4185,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731606440.0241237</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731606440.5689704</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606440.0241237.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606440.5689704.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>577.3</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>577.8</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.5</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3843,51 +4243,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731606442.700263</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731606444.0445528</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606442.700263.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606444.0445528.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>580.1</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>580.5</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3895,51 +4301,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731606447.815427</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731606448.3199909</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606447.815427.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606448.3199909.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>583</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>584.2</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3947,51 +4359,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731606448.7665088</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731606452.2057395</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606448.7665088.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731606452.2057395.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>583.5</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>575.5</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-8</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-1.37</v>
       </c>
     </row>
@@ -3999,44 +4417,50 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731606452.2226636</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731606452.2226636.png</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731606452.2226636.png</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>575.5</v>
       </c>
-      <c r="J70" t="n">
-        <v>575.5</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>575.7</v>
+      </c>
+      <c r="M70" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -4163,19 +4587,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>7.700000000000273</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.166666666666667</v>
+        <v>1.283333333333379</v>
       </c>
       <c r="E5" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -4185,16 +4609,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4.799999999999955</v>
+        <v>-4.199999999999932</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.7999999999999924</v>
+        <v>-0.6999999999999886</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.51</v>
+        <v>-0.4500000000000001</v>
       </c>
       <c r="F6" t="n">
         <v>-0.08</v>
@@ -4207,19 +4631,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.299999999999955</v>
+        <v>-5.5</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.8833333333333258</v>
+        <v>-0.9166666666666666</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9000000000000001</v>
+        <v>-0.9300000000000002</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.15</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="8">
